--- a/src/Excel/entregable3/CancelacionPrestamoAhorro.xlsx
+++ b/src/Excel/entregable3/CancelacionPrestamoAhorro.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Regresion\src\Excel\entregable3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E564CA32-D637-4654-99A7-9569B04AE5AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F95A1267-B655-4F20-A4B4-E855171AAEFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CancelacionAhorros" sheetId="1" r:id="rId1"/>
@@ -33,9 +33,6 @@
     <t>contraseña</t>
   </si>
   <si>
-    <t>razon</t>
-  </si>
-  <si>
     <t>SCISNEROSC1</t>
   </si>
   <si>
@@ -67,6 +64,9 @@
   </si>
   <si>
     <t>AA21019CBRRL</t>
+  </si>
+  <si>
+    <t>razon cierre</t>
   </si>
 </sst>
 </file>
@@ -402,7 +402,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -423,42 +423,42 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
       <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
